--- a/doc/도메인엑셀템플릿.xlsx
+++ b/doc/도메인엑셀템플릿.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>domainNm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,11 +70,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -414,9 +438,9 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
@@ -427,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -450,22 +474,45 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>255</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
